--- a/laravel_iso/public/assets/file/contoh_file.xlsx
+++ b/laravel_iso/public/assets/file/contoh_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LaNa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0A94D0-69F2-47AD-849D-65F887BAC60B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEFD80D-E7E7-466B-B5B7-668D7BB0F989}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -91,6 +91,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -120,7 +123,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,7 +440,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -619,5 +624,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>